--- a/InputData/bldgs/EoCPwEU/Elast of Component Price wrt E Use.xlsx
+++ b/InputData/bldgs/EoCPwEU/Elast of Component Price wrt E Use.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="139">
   <si>
     <t>Building Type</t>
   </si>
@@ -434,6 +434,12 @@
   </si>
   <si>
     <t>comparisons is provided in the "lighting calculations" tab.</t>
+  </si>
+  <si>
+    <t>Rural Residential</t>
+  </si>
+  <si>
+    <t>Urban Residential</t>
   </si>
 </sst>
 </file>
@@ -786,7 +792,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5206,26 +5212,29 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="2" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
-        <v>3</v>
+        <v>138</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>113</v>
       </c>
@@ -5234,11 +5243,15 @@
         <v>-4.8094160343019823</v>
       </c>
       <c r="C2" s="10">
+        <f>B2</f>
+        <v>-4.8094160343019823</v>
+      </c>
+      <c r="D2" s="10">
         <f>Calculations!C9</f>
         <v>-2.5007668695375553</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>114</v>
       </c>
@@ -5247,11 +5260,15 @@
         <v>-2.9877034296650091</v>
       </c>
       <c r="C3" s="10">
+        <f t="shared" ref="C3:C7" si="0">B3</f>
+        <v>-2.9877034296650091</v>
+      </c>
+      <c r="D3" s="10">
         <f>Calculations!C8</f>
         <v>-2.0863341572619731</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>115</v>
       </c>
@@ -5260,11 +5277,15 @@
         <v>-3.8985597319834957</v>
       </c>
       <c r="C4" s="10">
-        <f>AVERAGE(C2:C3)</f>
+        <f t="shared" si="0"/>
+        <v>-3.8985597319834957</v>
+      </c>
+      <c r="D4" s="10">
+        <f>AVERAGE(D2:D3)</f>
         <v>-2.2935505133997642</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>116</v>
       </c>
@@ -5273,11 +5294,15 @@
         <v>-3.772772715506405</v>
       </c>
       <c r="C5" s="10">
+        <f t="shared" si="0"/>
+        <v>-3.772772715506405</v>
+      </c>
+      <c r="D5" s="10">
         <f>Calculations!C10</f>
         <v>-1.8824406999425571</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>117</v>
       </c>
@@ -5286,11 +5311,15 @@
         <v>-1.6791102826121844</v>
       </c>
       <c r="C6" s="10">
+        <f t="shared" si="0"/>
+        <v>-1.6791102826121844</v>
+      </c>
+      <c r="D6" s="10">
         <f>Calculations!C7</f>
         <v>-1.3576531839832875</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>118</v>
       </c>
@@ -5299,6 +5328,10 @@
         <v>-1.591896144262489</v>
       </c>
       <c r="C7" s="10">
+        <f t="shared" si="0"/>
+        <v>-1.591896144262489</v>
+      </c>
+      <c r="D7" s="10">
         <f>Calculations!C11</f>
         <v>-1.591896144262489</v>
       </c>
@@ -5306,5 +5339,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C4" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>